--- a/data/extracted_data/raw_round2/Blanco_etal_1997_Fig4.xlsx
+++ b/data/extracted_data/raw_round2/Blanco_etal_1997_Fig4.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{A28D9C33-29BB-6348-AE9A-CC7EAB49870E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E78193C4-58B8-754D-B08C-E6ED32C6D630}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{A28D9C33-29BB-6348-AE9A-CC7EAB49870E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88054C5C-46BE-CC43-938F-E844B297C866}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16180" xr2:uid="{45BAA777-3F81-384F-A3C3-AB8EDF0EBB56}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -404,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA79649-EB5D-1B44-B571-CCC7C5BDD1DC}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -416,7 +416,7 @@
     <col min="3" max="3" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -427,7 +427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -438,7 +438,7 @@
         <v>0.19911662457287099</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -449,7 +449,7 @@
         <v>2.9099390878027001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -460,7 +460,7 @@
         <v>6.4593968206804298E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -470,8 +470,12 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <f>AVERAGE(C2:C8)</f>
+        <v>4.8082517987138272E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -482,7 +486,7 @@
         <v>2.01176645372158E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -493,7 +497,7 @@
         <v>1.8065666320012299E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
